--- a/public/excel/users.xlsx
+++ b/public/excel/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\Website\Web Programing\Laravel\EZona-Integritas\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B48325-F6A7-4AA1-8B56-22185DAE5D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06715EFE-1704-456A-A89D-12AE2A77B282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,22 +32,22 @@
     <t>A</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>no_telp</t>
+  </si>
+  <si>
+    <t>satker_id</t>
+  </si>
+  <si>
+    <t>level_id</t>
+  </si>
+  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>no_telp</t>
-  </si>
-  <si>
-    <t>satker_id</t>
-  </si>
-  <si>
-    <t>level_id</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -485,22 +485,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/public/excel/users.xlsx
+++ b/public/excel/users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\Website\Web Programing\Laravel\EZona-Integritas\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp_8c\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06715EFE-1704-456A-A89D-12AE2A77B282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D52BF11-50F1-435E-8AD1-EF43A2720BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <t>level_id</t>
   </si>
   <si>
-    <t>id</t>
+    <t>nip</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
